--- a/setup/localization/secret_bot_localization.xlsx
+++ b/setup/localization/secret_bot_localization.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="115">
   <si>
     <t>default</t>
   </si>
@@ -138,6 +138,24 @@
   </si>
   <si>
     <t>Не важливо</t>
+  </si>
+  <si>
+    <t>update_sec_friend_profile_msg</t>
+  </si>
+  <si>
+    <t>Let's update your secret friend profile</t>
+  </si>
+  <si>
+    <t>Давайте оновимо профіль вашого таємного друга</t>
+  </si>
+  <si>
+    <t>update_profile_msg</t>
+  </si>
+  <si>
+    <t>Let's update your profile</t>
+  </si>
+  <si>
+    <t>Давайте оновимо ваш профіль</t>
   </si>
   <si>
     <t>ask_what_change_msg</t>
@@ -160,7 +178,7 @@
   </si>
   <si>
     <t>Це ваш профіль:
-Ім'я: {0} {1}
+Ім`я: {0} {1}
 Вік: {2}
 Місто: {3}
 Стать: {4}</t>
@@ -172,7 +190,7 @@
     <t>Please set age for your secret friend in format: minAge-maxAge. Example: 20-25</t>
   </si>
   <si>
-    <t>Вкажіть бажаний вік для вашого секретного друга в форматі: мінВік-максВік. Наприклад: 20-25</t>
+    <t>Вкажіть бажаний вік для вашого таємного друга в форматі: мінВік-максВік. Наприклад: 20-25</t>
   </si>
   <si>
     <t>incorrect_secret_friend_age_msg</t>
@@ -192,7 +210,7 @@
 It is important for automatic search</t>
   </si>
   <si>
-    <t>Вкажіть з якого міста має бути ваш секретний друг
+    <t>Вкажіть з якого міста має бути ваш таємний друг
 Використовуйте офіційні англійські назви, можете знайти назву в англомовній вікіпедії, наприклад: Kyiv (NOT Kiev!)
 Це важливо для автоматичного пошуку</t>
   </si>
@@ -203,7 +221,7 @@
     <t>Please set gender of your friend</t>
   </si>
   <si>
-    <t>Вкажіть стать вашого секретного друга</t>
+    <t>Вкажіть стать вашого таємного друга</t>
   </si>
   <si>
     <t>start_messaging_btn_msg</t>
@@ -215,17 +233,33 @@
     <t>Почати спілкування</t>
   </si>
   <si>
+    <t>random_user_not_found_msg</t>
+  </si>
+  <si>
+    <t>No random user matching your criteria was found</t>
+  </si>
+  <si>
+    <t>За вашими критеріями нікого не знайдено</t>
+  </si>
+  <si>
     <t>found_random_user_msg</t>
   </si>
   <si>
-    <t>Found a secret friend:
-Gender: {0}
+    <t>Found a secret friend:</t>
+  </si>
+  <si>
+    <t>Знайдений таємий друг:</t>
+  </si>
+  <si>
+    <t>secret_friend_desc</t>
+  </si>
+  <si>
+    <t>Gender: {0}
 Age: {1}
 City: {2}</t>
   </si>
   <si>
-    <t>Знайдений секретний друг:
-Стать: {0}
+    <t>Стать: {0}
 Вік: {1}
 Місто: {2}</t>
   </si>
@@ -333,6 +367,27 @@
   </si>
   <si>
     <t>Ви зупинили спілкування з вашим другом</t>
+  </si>
+  <si>
+    <t>command_forbidden_message</t>
+  </si>
+  <si>
+    <t>Command forbidden</t>
+  </si>
+  <si>
+    <t>Ця команда заборонена</t>
+  </si>
+  <si>
+    <t>Criteria for secret friend searching:
+Gender: {0}
+Age: {1}-{2}
+City: {3}</t>
+  </si>
+  <si>
+    <t>Критерії для пошуку таємного друга:
+Стать: {0}
+Вік: {1}-{2}
+Місто: {3}</t>
   </si>
 </sst>
 </file>
@@ -344,19 +399,30 @@
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
-    <font/>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -372,8 +438,8 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -589,11 +655,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="33.14"/>
-    <col customWidth="1" min="2" max="2" width="92.0"/>
-    <col customWidth="1" min="3" max="3" width="104.86"/>
+    <col customWidth="1" min="1" max="1" width="29.0"/>
+    <col customWidth="1" min="2" max="2" width="80.5"/>
+    <col customWidth="1" min="3" max="3" width="91.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -609,10 +675,10 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -623,7 +689,7 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -689,7 +755,7 @@
       <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -700,7 +766,7 @@
       <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -749,13 +815,13 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -763,10 +829,10 @@
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -788,7 +854,7 @@
       <c r="B18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>52</v>
       </c>
     </row>
@@ -799,7 +865,7 @@
       <c r="B19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -832,7 +898,7 @@
       <c r="B22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>64</v>
       </c>
     </row>
@@ -848,7 +914,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -859,13 +925,13 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>73</v>
       </c>
     </row>
@@ -936,10 +1002,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -947,14 +1013,80 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
